--- a/public/locales/multilanguage.xlsx
+++ b/public/locales/multilanguage.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="489">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="519">
   <si>
     <t>标记</t>
   </si>
@@ -331,7 +331,7 @@
     <t>Receive ETH or not</t>
   </si>
   <si>
-    <t>能否接收以太币</t>
+    <t>是否接收以太币</t>
   </si>
   <si>
     <t>method_value</t>
@@ -1481,6 +1481,96 @@
   </si>
   <si>
     <t>请输入查询的标签</t>
+  </si>
+  <si>
+    <t>delete</t>
+  </si>
+  <si>
+    <t>Delete</t>
+  </si>
+  <si>
+    <t>删除</t>
+  </si>
+  <si>
+    <t>input_method_to</t>
+  </si>
+  <si>
+    <t>Input the address of contract to call</t>
+  </si>
+  <si>
+    <t>请输入调用合约地址</t>
+  </si>
+  <si>
+    <t>input_method_name</t>
+  </si>
+  <si>
+    <t>Input the name of method</t>
+  </si>
+  <si>
+    <t>请输入方法名称</t>
+  </si>
+  <si>
+    <t>input_method_description</t>
+  </si>
+  <si>
+    <t>Input the description of  method</t>
+  </si>
+  <si>
+    <t>请输入方法描述</t>
+  </si>
+  <si>
+    <t>input_method_param_type</t>
+  </si>
+  <si>
+    <t>Input the types of params splitted with commas</t>
+  </si>
+  <si>
+    <t>请输入参数类型，使用逗号分隔</t>
+  </si>
+  <si>
+    <t>input_method_param_demo</t>
+  </si>
+  <si>
+    <t>Input the demo of params</t>
+  </si>
+  <si>
+    <t>请输入参数示例</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>是</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>否</t>
+  </si>
+  <si>
+    <t>add_dapp_method</t>
+  </si>
+  <si>
+    <t>Add a method</t>
+  </si>
+  <si>
+    <t>增加方法</t>
+  </si>
+  <si>
+    <t>dapp_method_admin</t>
+  </si>
+  <si>
+    <t>Admin method</t>
+  </si>
+  <si>
+    <t>管理方法</t>
   </si>
 </sst>
 </file>
@@ -1488,10 +1578,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -1514,17 +1604,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1537,8 +1618,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1552,9 +1650,40 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1562,7 +1691,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1584,7 +1713,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1598,45 +1727,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -1645,7 +1735,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1667,13 +1757,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1691,13 +1799,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1709,7 +1811,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1721,7 +1853,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1733,103 +1907,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1841,7 +1919,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1861,15 +1951,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1886,16 +1967,25 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1909,28 +1999,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1952,6 +2031,17 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
@@ -1963,145 +2053,145 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -2452,10 +2542,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:C168"/>
+  <dimension ref="A1:C178"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView tabSelected="1" topLeftCell="A148" workbookViewId="0">
+      <selection activeCell="B157" sqref="B157"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="30.5" defaultRowHeight="17.6" outlineLevelCol="2"/>
@@ -4314,6 +4404,116 @@
         <v>488</v>
       </c>
     </row>
+    <row r="169" ht="18" spans="1:3">
+      <c r="A169" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="B169" s="2" t="s">
+        <v>490</v>
+      </c>
+      <c r="C169" s="3" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="170" ht="18" spans="1:3">
+      <c r="A170" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="B170" s="2" t="s">
+        <v>493</v>
+      </c>
+      <c r="C170" s="3" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="171" ht="18" spans="1:3">
+      <c r="A171" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="B171" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="C171" s="3" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="172" ht="18" spans="1:3">
+      <c r="A172" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="B172" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="C172" s="3" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="173" ht="18" spans="1:3">
+      <c r="A173" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="B173" s="2" t="s">
+        <v>502</v>
+      </c>
+      <c r="C173" s="3" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="174" ht="18" spans="1:3">
+      <c r="A174" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="B174" s="2" t="s">
+        <v>505</v>
+      </c>
+      <c r="C174" s="3" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="175" ht="18" spans="1:3">
+      <c r="A175" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="B175" s="2" t="s">
+        <v>508</v>
+      </c>
+      <c r="C175" s="3" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="176" ht="18" spans="1:3">
+      <c r="A176" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="B176" s="2" t="s">
+        <v>511</v>
+      </c>
+      <c r="C176" s="3" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="177" ht="18" spans="1:3">
+      <c r="A177" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="B177" s="2" t="s">
+        <v>514</v>
+      </c>
+      <c r="C177" s="3" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="178" ht="18" spans="1:3">
+      <c r="A178" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="B178" s="2" t="s">
+        <v>517</v>
+      </c>
+      <c r="C178" s="3" t="s">
+        <v>518</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
